--- a/weather.xlsx
+++ b/weather.xlsx
@@ -427,7 +427,7 @@
     <col width="13" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -472,14 +472,14 @@
         </is>
       </c>
       <c r="B3" s="1" t="n">
-        <v>-0.6</v>
+        <v>-14</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>3.2</v>
+        <v>5.1</v>
       </c>
       <c r="D3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Overcast </t>
+          <t xml:space="preserve">Cloudy </t>
         </is>
       </c>
       <c r="E3" s="1" t="inlineStr">
@@ -495,14 +495,14 @@
         </is>
       </c>
       <c r="B4" s="1" t="n">
-        <v>-3.1</v>
+        <v>-14.4</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>2.8</v>
+        <v>6.3</v>
       </c>
       <c r="D4" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Overcast </t>
+          <t>Light freezing rain</t>
         </is>
       </c>
       <c r="E4" s="1" t="inlineStr">
@@ -518,14 +518,14 @@
         </is>
       </c>
       <c r="B5" s="1" t="n">
-        <v>-3.8</v>
+        <v>-5.2</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="D5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Overcast </t>
+          <t>Heavy snow</t>
         </is>
       </c>
       <c r="E5" s="1" t="inlineStr">
@@ -541,14 +541,14 @@
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>-4</v>
+        <v>-10.4</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="D6" s="1" t="inlineStr">
         <is>
-          <t>Heavy snow</t>
+          <t>Light snow</t>
         </is>
       </c>
       <c r="E6" s="1" t="inlineStr">
@@ -564,14 +564,14 @@
         </is>
       </c>
       <c r="B7" s="1" t="n">
-        <v>-5.2</v>
+        <v>-23.6</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="D7" s="1" t="inlineStr">
         <is>
-          <t>Heavy snow</t>
+          <t>Freezing fog</t>
         </is>
       </c>
       <c r="E7" s="1" t="inlineStr">
@@ -587,14 +587,14 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>-8</v>
+        <v>-19</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>2.8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>Patchy moderate snow</t>
+          <t>Light freezing rain</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
@@ -610,14 +610,14 @@
         </is>
       </c>
       <c r="B9" s="1" t="n">
-        <v>-8.6</v>
+        <v>-5.2</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Moderate snow</t>
         </is>
       </c>
       <c r="E9" s="1" t="inlineStr">
